--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2043079.402603308</v>
+        <v>2147259.037054379</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>71.3419195941009</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>103.0811591536998</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,10 +873,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>214.2199140788838</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -899,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>46.27182779876233</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>179.1913296314481</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1.804481415881861</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>31.15371111986572</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>328.9143379736184</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>238.7813195717449</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>77.05696347320951</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,10 +1350,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>139.214513896785</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S13" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>36.22494343870343</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2014,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>14.53306611597379</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>155.2435806730872</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>167.3637267182081</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174119</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812118</v>
+        <v>21.85677025083604</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2855,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>146.4649598217087</v>
       </c>
       <c r="E31" t="n">
-        <v>115.4764219077151</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>63.16281301712745</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>160.5201563761534</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>20.9284728855285</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>114.5157480654941</v>
+        <v>179.8615250417381</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3901,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>246.4755938422903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>121.8000472740347</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1575.942324366272</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1575.942324366272</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218338</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450751</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450751</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X2" t="n">
-        <v>2352.681496406205</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y2" t="n">
-        <v>1962.542164430393</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4401,19 +4403,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,13 +4424,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>629.1078027362229</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="C4" t="n">
-        <v>460.171619808316</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959802</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>918.5249727731834</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>629.1078027362229</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X4" t="n">
-        <v>629.1078027362229</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y4" t="n">
-        <v>629.1078027362229</v>
+        <v>879.9099329995254</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.416669135309</v>
+        <v>1664.678443125553</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1664.678443125553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528559</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,40 +4579,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3034.313810074196</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2703.250922730625</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2350.482267460511</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.016509199431</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.016509199431</v>
+        <v>2051.278283189674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4674,22 +4676,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>630.8037095364738</v>
+        <v>628.7269654071711</v>
       </c>
       <c r="C7" t="n">
-        <v>461.8675266085669</v>
+        <v>459.7907824792642</v>
       </c>
       <c r="D7" t="n">
-        <v>311.7508871962312</v>
+        <v>459.7907824792642</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>311.8776888968711</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>311.8776888968711</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415546</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.594608541189</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335302</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W7" t="n">
-        <v>1040.441725264731</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X7" t="n">
-        <v>812.4521743667135</v>
+        <v>1031.168009380941</v>
       </c>
       <c r="Y7" t="n">
-        <v>812.4521743667135</v>
+        <v>810.3754302374108</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1891.353293732296</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1522.390776791884</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2768.144153427816</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228006</v>
@@ -4887,7 +4889,7 @@
         <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>855.5289736739898</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>686.5927907460829</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>536.4761513337471</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>388.563057751354</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>241.6731102534436</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>994.2880032601528</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W10" t="n">
-        <v>994.2880032601528</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X10" t="n">
-        <v>994.2880032601528</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="Y10" t="n">
-        <v>994.2880032601528</v>
+        <v>1037.177438504229</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5023,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5048,16 +5050,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5123,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
         <v>402.7245934908939</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2404.986360578632</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>2185.384895601574</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1896.309668945771</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>903.4258806613763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5258,46 +5260,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2410.372231621975</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2190.770766644916</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U16" t="n">
-        <v>1901.695539989114</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.011051783227</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5506,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5594,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>4435.461999481584</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>3417.262223379355</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6069,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,31 +6244,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558404</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C28" t="n">
-        <v>2728.681365661312</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>2728.681365661312</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.681365661312</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673038</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467151</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430191</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532174</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388644</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,10 +6457,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6467,13 +6469,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O30" t="n">
-        <v>2354.274259167293</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2940.5785039035</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C31" t="n">
-        <v>2771.642320975594</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D31" t="n">
-        <v>2621.525681563258</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>2504.882831151424</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="32">
@@ -6674,61 +6676,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6737,13 +6739,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2939.372134388644</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C34" t="n">
-        <v>2939.372134388644</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D34" t="n">
-        <v>2875.571313159222</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159222</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467151</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430191</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532174</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388644</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="35">
@@ -6926,28 +6928,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,19 +7025,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>738.7889117913853</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1366.386875345992</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1918.296605585279</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2341.919755080347</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2544.961939527175</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.6374272687975</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C40" t="n">
-        <v>631.7012443408906</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.244907039234</v>
+        <v>2265.284775457293</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.244907039234</v>
+        <v>2045.683310480234</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.169680383432</v>
+        <v>1756.608083824432</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.485192177545</v>
+        <v>1501.923595618545</v>
       </c>
       <c r="W40" t="n">
-        <v>1431.068022140585</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="X40" t="n">
-        <v>1203.078471242567</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.2858920990373</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7399,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7488,13 +7490,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7636,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7646,10 +7648,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7688,7 +7690,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7783,16 +7785,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S13" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>144.8013425629412</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>145.8014946027475</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>211.1765892730634</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>24.5883995088501</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>84.77391660561989</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405067</v>
+        <v>145.3900508477918</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24686,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24841,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.150513196503624</v>
       </c>
       <c r="E31" t="n">
-        <v>30.95754073885404</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>85.45266000108491</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>125.5054897610407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>58.20633287440185</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>66.51053793615051</v>
+        <v>1.164760959906488</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>39.70888054695388</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>24.63391537253447</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.2560524782</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516057</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
         <v>595255.2831516055</v>
@@ -26320,25 +26322,25 @@
         <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="G2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
@@ -26347,10 +26349,10 @@
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752544</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815724</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26439,13 +26441,13 @@
         <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680582</v>
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932387.4141255367</v>
+        <v>-932387.4141255374</v>
       </c>
       <c r="C6" t="n">
         <v>396357.3316020551</v>
@@ -26528,40 +26530,40 @@
         <v>396357.3316020551</v>
       </c>
       <c r="E6" t="n">
-        <v>146869.3169271863</v>
+        <v>146869.3169271865</v>
       </c>
       <c r="F6" t="n">
+        <v>472281.7787345414</v>
+      </c>
+      <c r="G6" t="n">
+        <v>472281.7787345412</v>
+      </c>
+      <c r="H6" t="n">
+        <v>472281.7787345412</v>
+      </c>
+      <c r="I6" t="n">
+        <v>472281.7787345412</v>
+      </c>
+      <c r="J6" t="n">
+        <v>254750.576337264</v>
+      </c>
+      <c r="K6" t="n">
+        <v>472281.7787345416</v>
+      </c>
+      <c r="L6" t="n">
         <v>472281.7787345413</v>
       </c>
-      <c r="G6" t="n">
-        <v>472281.7787345416</v>
-      </c>
-      <c r="H6" t="n">
-        <v>472281.7787345414</v>
-      </c>
-      <c r="I6" t="n">
-        <v>472281.7787345417</v>
-      </c>
-      <c r="J6" t="n">
-        <v>254750.5763372642</v>
-      </c>
-      <c r="K6" t="n">
-        <v>472281.7787345415</v>
-      </c>
-      <c r="L6" t="n">
-        <v>472281.7787345414</v>
-      </c>
       <c r="M6" t="n">
-        <v>387226.7507990296</v>
+        <v>387226.7507990297</v>
       </c>
       <c r="N6" t="n">
         <v>472281.7787345413</v>
       </c>
       <c r="O6" t="n">
-        <v>472281.7787345415</v>
+        <v>472281.7787345416</v>
       </c>
       <c r="P6" t="n">
-        <v>472281.7787345415</v>
+        <v>472281.7787345414</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>298.3891810843681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>76.75082102823745</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,10 +27593,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>37.91772924494421</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27619,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>308.4112138219206</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>71.80384232745385</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,10 +27788,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>164.2213268431464</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>255.3692872167253</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>25.76870364706457</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>110.4596491456681</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>88.96884478581872</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>112.923129427043</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N12" t="n">
-        <v>137.7376326175082</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31862,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>391.9250669264611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32789,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>437.8531046913764</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33022,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,10 +33268,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>334.7693860946154</v>
+        <v>399.0581126127094</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33424,7 +33426,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33500,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N33" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,10 +33745,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>316.2462973459355</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,10 +33973,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>153.8606640989137</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>396.970088694367</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34381,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,28 +34444,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>373.3554713800157</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N12" t="n">
-        <v>6.39592053417488</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35510,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>257.9506595121309</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36437,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>303.8786972770462</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,10 +36916,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>200.7949786802852</v>
+        <v>265.0837051983791</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37148,16 +37150,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N33" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,10 +37393,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>176.264523259914</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>254.8360547723487</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38014,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38029,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>242.0137592966824</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2147259.037054379</v>
+        <v>2143246.427040385</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886421</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.7944255145775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>103.0811591536998</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>255.2654507318379</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,10 +882,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>208.5689900105839</v>
       </c>
       <c r="D5" t="n">
-        <v>46.27182779876233</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>1.804481415881861</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>85.47654389282661</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>328.9143379736184</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>17.35112070699514</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>77.05696347320951</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928489</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>162.4077002759655</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>30.97191586387658</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>71.60395572454081</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.155999212081729</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>155.2435806730872</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>167.3637267182081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>21.85677025083604</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>154.0869401039758</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>146.4649598217087</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>129.719450923317</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>160.5201563761534</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>87.21471514852939</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3483,13 +3483,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>251.5502284016991</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>179.8615250417381</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="X2" t="n">
-        <v>3009.337405520489</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2630.721789066533</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>775.7875500159902</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C4" t="n">
-        <v>775.7875500159902</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D4" t="n">
-        <v>625.6709106036544</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1387.934317044728</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036486</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995254</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X4" t="n">
-        <v>879.9099329995254</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y4" t="n">
-        <v>879.9099329995254</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1664.678443125553</v>
+        <v>2144.88377045846</v>
       </c>
       <c r="C5" t="n">
-        <v>1664.678443125553</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189674</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.278283189674</v>
+        <v>2531.483610522582</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>628.7269654071711</v>
+        <v>934.4107598040981</v>
       </c>
       <c r="C7" t="n">
-        <v>459.7907824792642</v>
+        <v>765.4745768761912</v>
       </c>
       <c r="D7" t="n">
-        <v>459.7907824792642</v>
+        <v>615.3579374638555</v>
       </c>
       <c r="E7" t="n">
-        <v>311.8776888968711</v>
+        <v>467.4448438814624</v>
       </c>
       <c r="F7" t="n">
-        <v>311.8776888968711</v>
+        <v>320.554896383552</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>152.8520597582709</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>152.8520597582709</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1259.157560278958</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1259.157560278958</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X7" t="n">
-        <v>1031.168009380941</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>810.3754302374108</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="8">
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1891.353293732296</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C8" t="n">
-        <v>1522.390776791884</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>952.093754689846</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>541.1078499002385</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>126.035399745235</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4837,19 +4837,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2277.953133796418</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y8" t="n">
-        <v>2277.953133796418</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>855.5289736739898</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>686.5927907460829</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>536.4761513337471</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>388.563057751354</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>241.6731102534436</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X10" t="n">
-        <v>1037.177438504229</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y10" t="n">
-        <v>1037.177438504229</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5020,34 +5020,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>781.3544215660705</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2282.914901483327</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>2063.313436506268</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1774.238209850466</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1519.553721644579</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1230.136551607618</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1002.147000709601</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>781.3544215660705</v>
       </c>
     </row>
     <row r="14">
@@ -5269,10 +5269,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,16 +5281,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.678320081396</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2232.8234857363</v>
       </c>
       <c r="T16" t="n">
-        <v>2307.590151828076</v>
+        <v>2013.222020759241</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.514925172274</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>952.055584962574</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>731.2630058190439</v>
       </c>
     </row>
     <row r="17">
@@ -5497,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2439.734801547855</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2256.879967202759</v>
       </c>
       <c r="T19" t="n">
-        <v>2312.991837396757</v>
+        <v>2037.2785022257</v>
       </c>
       <c r="U19" t="n">
-        <v>2023.916610740955</v>
+        <v>1748.203275569898</v>
       </c>
       <c r="V19" t="n">
-        <v>1769.232122535068</v>
+        <v>1493.518787364011</v>
       </c>
       <c r="W19" t="n">
-        <v>1479.814952498107</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,19 +5828,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3260.450525729772</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>3091.514342801865</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2941.39770338953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2793.484609807137</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3638.054802522885</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3417.262223379355</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,43 +5983,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6229,7 +6229,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6308,25 +6308,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311989</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2291.319709737861</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2071.718244760802</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1782.643018104999</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1527.958529899112</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1238.541359862152</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1010.551808964134</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>789.7592298206043</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,19 +6551,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311989</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032921</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>641.1291986799072</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>641.1291986799072</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1271.559793551694</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>1043.570242653677</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>822.7776635101469</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D37" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>572.9069687101817</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
         <v>484.8112968429803</v>
@@ -7131,16 +7131,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192832</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111739</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.167399417937</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>491.0125592675714</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2265.284775457293</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2045.683310480234</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1756.608083824432</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1501.923595618545</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1212.506425581584</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.61858572567908</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>35.40333084624507</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>59.21924749803996</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24.5883995088501</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>84.77391660561989</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>145.3900508477918</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>26.9393458976688</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>2.150513196503624</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24888,10 +24888,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>37.52737017531084</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>126.0028419604376</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>58.20633287440185</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>34.97276993489191</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.164760959906488</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>63.36835372228749</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.2560524782</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="15">
@@ -26316,40 +26316,40 @@
         <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.284775254</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="M2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="N2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="I2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
         <v>585181.2847752545</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815704</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815704</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26438,7 +26438,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26453,10 +26453,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680587</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932387.4141255374</v>
+        <v>-932387.4141255377</v>
       </c>
       <c r="C6" t="n">
         <v>396357.3316020551</v>
       </c>
       <c r="D6" t="n">
-        <v>396357.3316020551</v>
+        <v>396357.3316020549</v>
       </c>
       <c r="E6" t="n">
-        <v>146869.3169271865</v>
+        <v>146521.9376728288</v>
       </c>
       <c r="F6" t="n">
-        <v>472281.7787345414</v>
+        <v>471934.3994801841</v>
       </c>
       <c r="G6" t="n">
-        <v>472281.7787345412</v>
+        <v>471934.3994801847</v>
       </c>
       <c r="H6" t="n">
-        <v>472281.7787345412</v>
+        <v>471934.3994801847</v>
       </c>
       <c r="I6" t="n">
-        <v>472281.7787345412</v>
+        <v>471934.3994801844</v>
       </c>
       <c r="J6" t="n">
-        <v>254750.576337264</v>
+        <v>254403.1970829067</v>
       </c>
       <c r="K6" t="n">
-        <v>472281.7787345416</v>
+        <v>471934.3994801844</v>
       </c>
       <c r="L6" t="n">
-        <v>472281.7787345413</v>
+        <v>471934.3994801842</v>
       </c>
       <c r="M6" t="n">
-        <v>387226.7507990297</v>
+        <v>386879.3715446725</v>
       </c>
       <c r="N6" t="n">
-        <v>472281.7787345413</v>
+        <v>471934.3994801846</v>
       </c>
       <c r="O6" t="n">
-        <v>472281.7787345416</v>
+        <v>471934.3994801847</v>
       </c>
       <c r="P6" t="n">
-        <v>472281.7787345414</v>
+        <v>471934.3994801845</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>100.0350347748384</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>111.4435131414761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>76.75082102823745</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>30.94638747377499</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>156.7039017604237</v>
       </c>
       <c r="D5" t="n">
-        <v>308.4112138219206</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.2213268431464</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.87587651701148</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.76870364706457</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>277.2566436803253</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>88.96884478581872</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>69.12041821276401</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-8.952838470577262e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>428.7353800421384</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,7 +32563,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33028,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>601.0567753070492</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33271,22 +33271,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>399.0581126127094</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33426,7 +33426,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33496,34 +33496,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,13 +33733,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33748,16 +33748,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>139.5228722182831</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067255</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>373.3554713800157</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>101.892590396165</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997564</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>297.3936679588052</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,7 +36211,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>469.7150632237159</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36919,22 +36919,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0837051983791</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37074,7 +37074,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37396,16 +37396,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>8.181160134949776</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236319604</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>242.0137592966824</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_18_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2143246.427040385</v>
+        <v>2145006.957343172</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>282.6988068886421</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>23.79925355567503</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>88.32978976418777</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>255.2654507318379</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>208.5689900105839</v>
+        <v>166.9920602376567</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247809</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>85.47654389282661</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>17.35112070699514</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814486</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.67037196991708</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928489</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>162.4077002759655</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>30.97191586387658</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>7.155999212081729</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>186.5877792298974</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2374,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>154.0869401039758</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>131.6329842920044</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>129.719450923317</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>220.9987113889034</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>192.5871593887784</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>251.5502284016991</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569541</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>158.7974735697944</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>100.5858322992699</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4327,7 +4327,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
@@ -4348,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066533</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066533</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>2630.721789066533</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>2630.721789066533</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.4020639300938</v>
+        <v>471.5602567208166</v>
       </c>
       <c r="C4" t="n">
-        <v>213.4020639300938</v>
+        <v>302.6240737929097</v>
       </c>
       <c r="D4" t="n">
-        <v>213.4020639300938</v>
+        <v>302.6240737929097</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1387.934317044728</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V4" t="n">
-        <v>1133.249828838841</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W4" t="n">
-        <v>843.8326588018809</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="X4" t="n">
-        <v>615.8431079038636</v>
+        <v>874.0013006945865</v>
       </c>
       <c r="Y4" t="n">
-        <v>395.0505287603335</v>
+        <v>653.2087215510563</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.88377045846</v>
+        <v>2144.883770458459</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218345</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
@@ -4573,7 +4573,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792697</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522582</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522582</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.483610522582</v>
+        <v>2531.483610522581</v>
       </c>
     </row>
     <row r="6">
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>934.4107598040981</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C7" t="n">
-        <v>765.4745768761912</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>615.3579374638555</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>467.4448438814624</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>320.554896383552</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>152.8520597582709</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>152.8520597582709</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845646</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040981</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.147705894841</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.88200728809</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>952.093754689846</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>541.1078499002385</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>126.035399745235</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875186</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899374</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064549</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,46 +4889,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660705</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2282.914901483327</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2063.313436506268</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1774.238209850466</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1519.553721644579</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1230.136551607618</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1002.147000709601</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>781.3544215660705</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,22 +5354,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>549.6145409888042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2415.678320081396</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2232.8234857363</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2013.222020759241</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1724.146794103439</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1469.462305897552</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1180.045135860591</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>952.055584962574</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>731.2630058190439</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5521,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>801.6605733532803</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>632.7243904253734</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2439.734801547855</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2256.879967202759</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2037.2785022257</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1748.203275569898</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1493.518787364011</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>1204.10161732705</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.10161732705</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>983.30903818352</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,25 +6126,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,13 +6171,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
         <v>175.9033664000583</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2291.319709737861</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2071.718244760802</v>
+        <v>2131.145638839201</v>
       </c>
       <c r="U28" t="n">
-        <v>1782.643018104999</v>
+        <v>1842.070412183399</v>
       </c>
       <c r="V28" t="n">
-        <v>1527.958529899112</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="W28" t="n">
-        <v>1238.541359862152</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X28" t="n">
-        <v>1010.551808964134</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>789.7592298206043</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6791,7 +6791,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253734</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1465.154832249753</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1175.737662212792</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7028,7 +7028,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192832</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111739</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7265,7 +7265,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7311,25 +7311,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1273.299877194481</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1045.310326296464</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.61858572567908</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>24.63391537253449</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.40333084624507</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>59.21924749803996</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>65.54986409393064</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24651,10 +24651,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>26.9393458976688</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>85.77246603528388</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>119.8635921600923</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>37.52737017531084</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>31.13893193492459</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>24.8182909385099</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>34.97276993489191</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>838304.2560524781</v>
+        <v>838304.256052478</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>838304.2560524782</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524781</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>838304.256052478</v>
+        <v>838304.2560524782</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.284775254</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752547</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752547</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752543</v>
@@ -26352,10 +26352,10 @@
         <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90964.0109881571</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90964.01098815711</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.01098815704</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90964.01098815704</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26438,7 +26438,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
@@ -26453,10 +26453,10 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-932387.4141255377</v>
+        <v>-932387.4141255375</v>
       </c>
       <c r="C6" t="n">
         <v>396357.3316020551</v>
       </c>
       <c r="D6" t="n">
-        <v>396357.3316020549</v>
+        <v>396357.3316020552</v>
       </c>
       <c r="E6" t="n">
-        <v>146521.9376728288</v>
+        <v>146834.5790017508</v>
       </c>
       <c r="F6" t="n">
-        <v>471934.3994801841</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="G6" t="n">
-        <v>471934.3994801847</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="H6" t="n">
-        <v>471934.3994801847</v>
+        <v>472247.040809106</v>
       </c>
       <c r="I6" t="n">
-        <v>471934.3994801844</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="J6" t="n">
-        <v>254403.1970829067</v>
+        <v>254715.8384118286</v>
       </c>
       <c r="K6" t="n">
-        <v>471934.3994801844</v>
+        <v>472247.0408091058</v>
       </c>
       <c r="L6" t="n">
-        <v>471934.3994801842</v>
+        <v>472247.0408091056</v>
       </c>
       <c r="M6" t="n">
-        <v>386879.3715446725</v>
+        <v>387192.012873594</v>
       </c>
       <c r="N6" t="n">
-        <v>471934.3994801846</v>
+        <v>472247.0408091057</v>
       </c>
       <c r="O6" t="n">
-        <v>471934.3994801847</v>
+        <v>472247.0408091056</v>
       </c>
       <c r="P6" t="n">
-        <v>471934.3994801845</v>
+        <v>472247.0408091055</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022931</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022931</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100.0350347748384</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>362.4386851003786</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>58.10417288238141</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>30.94638747377499</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>156.7039017604237</v>
+        <v>198.2808315333509</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>10.87587651701148</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>183.3889571555937</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>277.2566436803253</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.2566436803241</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>73.0846429444037</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276401</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30510,7 +30510,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543346</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32712,7 +32712,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33511,10 +33511,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,10 +33891,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067255</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997564</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36141,10 +36141,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37159,10 +37159,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,10 +37539,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236319604</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
